--- a/Sonarqubeインストール手順.xlsx
+++ b/Sonarqubeインストール手順.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_Disabled\案件\ANA\ツール調査\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\git\fileManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF54CE2-14E3-4A37-8E67-94106EEFBA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="19080" yWindow="2310" windowWidth="12555" windowHeight="16005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="1" r:id="rId1"/>
     <sheet name="事前準備" sheetId="2" r:id="rId2"/>
     <sheet name="インストール" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>Sonarqube環境作成手順</t>
     <rPh sb="9" eb="11">
@@ -592,9 +602,6 @@
     <t>vi /etc/sysctl.d/99-sonarqube.conf</t>
   </si>
   <si>
-    <t>fs.file-max=65536</t>
-  </si>
-  <si>
     <t>vm.max_map_count=262144</t>
   </si>
   <si>
@@ -919,13 +926,37 @@
   </si>
   <si>
     <t>vi sonar.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fs.file-max=65536</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・RUN_AS_USERのコメントを外しSonarQube起動用ユーザ名を入力</t>
+    <rPh sb="18" eb="19">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>キドウヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RUN_AS_USER=sonarqube</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1414,10 +1445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1456,12 +1487,12 @@
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1477,10 +1508,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1537,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1573,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1661,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1697,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1715,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1733,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1757,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1775,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1811,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1841,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2042,12 +2073,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2079,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -2179,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -2189,7 +2218,7 @@
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10"/>
@@ -2199,7 +2228,7 @@
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2219,10 +2248,10 @@
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="2"/>
@@ -2230,11 +2259,11 @@
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="2"/>
@@ -2301,7 +2330,7 @@
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>91</v>
@@ -2314,24 +2343,24 @@
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="10"/>
@@ -2346,10 +2375,10 @@
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2359,24 +2388,24 @@
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
       <c r="C32" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -2393,7 +2422,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -2403,7 +2432,7 @@
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -2423,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -2433,7 +2462,7 @@
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -2453,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -2463,7 +2492,7 @@
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
       <c r="C41" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -2515,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2525,7 +2554,7 @@
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2555,7 +2584,7 @@
     <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -2583,7 +2612,7 @@
     <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
       <c r="C53" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -2639,7 +2668,7 @@
     <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
       <c r="C59" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -2649,10 +2678,10 @@
     <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
       <c r="C60" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -2669,7 +2698,7 @@
     <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -2679,7 +2708,7 @@
     <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
       <c r="C63" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -2697,7 +2726,7 @@
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
       <c r="C65" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -2727,7 +2756,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -2737,7 +2766,7 @@
     <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
       <c r="C69" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -2757,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -2767,7 +2796,7 @@
     <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
       <c r="C72" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -2776,7 +2805,9 @@
     </row>
     <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -2784,7 +2815,9 @@
     </row>
     <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -2799,19 +2832,21 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="8"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="8">
+        <v>10</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="8">
-        <v>9</v>
-      </c>
+      <c r="B77" s="8"/>
       <c r="C77" s="10" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -2820,28 +2855,28 @@
     </row>
     <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
-      <c r="C78" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="8"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="8">
+        <v>11</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="8">
-        <v>10</v>
-      </c>
+      <c r="B80" s="8"/>
       <c r="C80" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -2851,7 +2886,7 @@
     <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
       <c r="C81" s="10" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -2861,7 +2896,7 @@
     <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
       <c r="C82" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -2871,7 +2906,7 @@
     <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
       <c r="C83" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -2881,7 +2916,7 @@
     <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
       <c r="C84" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -2890,32 +2925,34 @@
     </row>
     <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
-      <c r="C85" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="8"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="8">
+        <v>12</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="8">
-        <v>11</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="10" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2926,34 +2963,32 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="8"/>
-      <c r="C89" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="F89" s="10"/>
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="8"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="8">
+        <v>13</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="8">
-        <v>12</v>
-      </c>
+      <c r="B91" s="8"/>
       <c r="C91" s="13" t="s">
         <v>137</v>
       </c>
@@ -2974,7 +3009,7 @@
     </row>
     <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D93" s="10"/>
@@ -2984,31 +3019,21 @@
     </row>
     <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8"/>
-      <c r="C94" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="2"/>
     </row>
     <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="8"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="9"/>
-      <c r="C96" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="5"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
